--- a/BlogData.xlsx
+++ b/BlogData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72479816-AB29-9F43-BC70-708835E5BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF63D9-24AE-164D-B43C-21A0257E01F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,33 +157,6 @@
     <t>Best AI Music Generotor</t>
   </si>
   <si>
-    <t>/Blog Data/Upscalor.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Writing.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Coanch.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Assistanse.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Story.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Beacon.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Creator.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Music.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Trans.png</t>
-  </si>
-  <si>
     <t>SectionDesc1</t>
   </si>
   <si>
@@ -287,6 +260,33 @@
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend. &lt;br&gt;&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend.</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Upscalor.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Trans.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Writing.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Coanch.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Assistanse.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Story.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Beacon.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Creator.png</t>
+  </si>
+  <si>
+    <t>Zula/Blog Data/Music.png</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+      <selection activeCell="E2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,73 +678,73 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>59</v>
-      </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -761,58 +761,58 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" t="s">
-        <v>82</v>
-      </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -849,10 +849,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -869,10 +869,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -889,10 +889,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -929,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -949,10 +949,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -969,10 +969,10 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -989,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1009,10 +1009,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -1029,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -1049,10 +1049,10 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1069,10 +1069,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -1089,10 +1089,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1129,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/BlogData.xlsx
+++ b/BlogData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF63D9-24AE-164D-B43C-21A0257E01F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DD513-E2FB-1B4C-A7D1-EC6CF968030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
   </bookViews>
@@ -262,31 +262,31 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend. &lt;br&gt;&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend.</t>
   </si>
   <si>
-    <t>Zula/Blog Data/Upscalor.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Trans.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Writing.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Coanch.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Assistanse.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Story.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Beacon.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Creator.png</t>
-  </si>
-  <si>
-    <t>Zula/Blog Data/Music.png</t>
+    <t>/Blog Data/Upscalor.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Trans.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Writing.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Coanch.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Assistanse.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Story.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Beacon.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Creator.png</t>
+  </si>
+  <si>
+    <t>/Blog Data/Music.png</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BlogData.xlsx
+++ b/BlogData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DD513-E2FB-1B4C-A7D1-EC6CF968030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A161D-B2AF-A84A-8388-B753604129F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15860" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,31 +262,31 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend. &lt;br&gt;&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend.</t>
   </si>
   <si>
-    <t>/Blog Data/Upscalor.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Trans.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Writing.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Coanch.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Assistanse.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Story.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Beacon.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Creator.png</t>
-  </si>
-  <si>
-    <t>/Blog Data/Music.png</t>
+    <t>/Zula/public/Blog Data/Upscalor.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Trans.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Writing.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Coanch.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Assistanse.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Story.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Beacon.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Creator.png</t>
+  </si>
+  <si>
+    <t>/Zula/public/Blog Data/Music.png</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BlogData.xlsx
+++ b/BlogData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A161D-B2AF-A84A-8388-B753604129F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA1E33-7A72-EA41-A3A1-AA2A128B5340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15860" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
   </bookViews>
@@ -262,31 +262,31 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend. &lt;br&gt;&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Integer interdum arcu sit amet arcu vulputate, id pretium enim hendrerit. Praesent tempus neque eu nulla sagittis, faucibus viverra ipsum sollicitudin. Mauris id accumsan lorem. Praesent eleifend tempor nibh. Curabitur quis diam viverra, iaculis purus eu, ultricies ligula. Maecenas mattis ante est, quis venenatis ipsum fermentum at. Nunc gravida vestibulum dolor eu bibendum. Sed pulvinar arcu sit amet arcu semper, sit amet interdum lectus ultricies. Sed sagittis neque non euismod maximus. Phasellus vitae mi et neque tristique pulvinar sit amet ut velit. Quisque sit amet semper leo. Quisque tempus felis a malesuada aliquet. Aenean ultricies pellentesque finibus. Proin ut urna eget augue tristique venenatis ut vitae nisl. Aenean suscipit neque quis pellentesque molestie. Nulla volutpat a nisi non eleifend.</t>
   </si>
   <si>
-    <t>/Zula/public/Blog Data/Upscalor.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Trans.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Writing.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Coanch.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Assistanse.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Story.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Beacon.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Creator.png</t>
-  </si>
-  <si>
-    <t>/Zula/public/Blog Data/Music.png</t>
+    <t>/Zula/Blog Data/Upscalor.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Trans.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Writing.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Coanch.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Assistanse.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Story.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Beacon.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Creator.png</t>
+  </si>
+  <si>
+    <t>/Zula/Blog Data/Music.png</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BlogData.xlsx
+++ b/BlogData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankaj-pc/Desktop/Zula Demo/my-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA1E33-7A72-EA41-A3A1-AA2A128B5340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B651C-1CED-3245-BAE6-0F2B9CB54B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15860" xr2:uid="{A1461FE0-03E0-5147-8E54-7BBAB3C9960F}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
